--- a/source2-dispense.xlsx
+++ b/source2-dispense.xlsx
@@ -10654,12 +10654,13 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A983" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1001" activeCellId="0" sqref="A1001"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C108" activeCellId="0" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.93"/>
   </cols>
   <sheetData>
